--- a/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table21.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FECF1A9-0C86-4547-A6D4-2B181CC068FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B747FD2D-270D-1345-9346-4AC81BE6AD3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19160" yWindow="1140" windowWidth="18280" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
   <si>
     <t>Value</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Total landings</t>
   </si>
   <si>
-    <t>SI 1024,761</t>
-  </si>
-  <si>
     <t>Albacorc</t>
   </si>
   <si>
@@ -122,19 +119,28 @@
   </si>
   <si>
     <t xml:space="preserve">Landings: </t>
+  </si>
+  <si>
+    <t>Total check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -159,10 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,8 +496,8 @@
     <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -503,76 +511,76 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>16761385</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2">
+        <v>6761385</v>
+      </c>
+      <c r="E2" s="2">
         <v>38435508</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>2031309</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>15197107</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1020309</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>6977782</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
-        <v>72131</v>
+      <c r="D5" s="2">
+        <v>721310</v>
       </c>
       <c r="E5" s="2">
         <v>3821678</v>
@@ -580,245 +588,258 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>119381</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>143476</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>101891</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>638771</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
-        <v>41907</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2">
+        <v>44907</v>
+      </c>
+      <c r="E8" s="2">
         <v>149338</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>43196</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>327362</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>42977</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>1057098</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>39332</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>147626</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>22422</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>81905</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>15256</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>65115</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>14961</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>29564</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>13206</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>109636</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1">
-        <v>845</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2">
+        <v>8450</v>
+      </c>
+      <c r="E16" s="2">
         <v>48906</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>24469</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>212480</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2">
+        <v>11024761</v>
+      </c>
+      <c r="E18" s="2">
         <v>67443352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4">
+        <f>SUM(D2:D17)-D18</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f>SUM(E2:E17)-E18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="1">
-        <v>11004693</v>
-      </c>
-      <c r="E20" s="1">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1004693</v>
+      </c>
+      <c r="E20" s="2">
         <v>4275428</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
@@ -826,146 +847,182 @@
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>261129</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>1276596</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2">
         <v>1265822</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>5552024</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4">
+        <f>SUM(D20:D21)-D22</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f>SUM(E20:E21)-E22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
         <v>12290583</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="2">
         <v>72995376</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1">
-        <v>12139</v>
-      </c>
-      <c r="E25" s="1">
-        <v>14589</v>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>12139</v>
+      </c>
+      <c r="E26" s="2">
+        <v>14589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2">
         <v>12139</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="2">
         <v>14589</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1">
-        <v>6101</v>
-      </c>
-      <c r="E28" s="1">
-        <v>7335</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="1">
-        <v>5838</v>
-      </c>
-      <c r="E29" s="1">
-        <v>35219</v>
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6104</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7335</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1">
-        <v>11942</v>
-      </c>
-      <c r="E30" s="1">
-        <v>42554</v>
+        <v>21</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5838</v>
+      </c>
+      <c r="E30" s="2">
+        <v>35219</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2">
+        <v>11942</v>
+      </c>
+      <c r="E31" s="2">
+        <v>42554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="D32" s="4">
+        <f>SUM(D29:D30)-D31</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <f>SUM(E29:E30)-E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2">
         <v>12314664</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E33" s="2">
         <v>73052519</v>
       </c>
     </row>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B747FD2D-270D-1345-9346-4AC81BE6AD3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5804BA4-D6C2-E04B-B28B-C7FE545678EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19160" yWindow="1140" windowWidth="18280" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2">
         <v>12314664</v>
